--- a/2018_data/Matt_Barkley2018.xlsx
+++ b/2018_data/Matt_Barkley2018.xlsx
@@ -345,150 +345,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Barkley</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Matt</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>QB</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>2018-11-11</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>28.064</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>BUF</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>NYJ</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>W 41-10</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>60.00</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>117.4</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>10.88</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA1" t="n">
-        <v>17.08</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>